--- a/presentation/Function Heap Profiler.xlsx
+++ b/presentation/Function Heap Profiler.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\The-w\Documents\University Year 4 Term 1\CMP418 - Programming Animation Systems\cmp418_coursework-Camwig\presentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D82DD189-1546-4C1B-A8BA-1C5DB963262F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78881F33-0050-4C7C-B30D-1A8188A3771A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FD89CAEE-A5F5-4761-8D23-89C1C84712BC}"/>
+    <workbookView xWindow="31200" yWindow="2520" windowWidth="17280" windowHeight="8970" xr2:uid="{FD89CAEE-A5F5-4761-8D23-89C1C84712BC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -141,6 +141,3009 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Init Function</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> Heap Profiler </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$1:$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Init - Average of ten</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Objects/Allocation Increase</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$3:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2D Skeletal Character</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2D Sprite Sheet Character</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3D Character</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3D Character Ragdoll</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$3:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1199.7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>812.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>563</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3DB2-42DE-ABFF-61FD5BEDBE4E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$1:$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Init - Average of ten</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Heap Size Increase KB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$3:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2D Skeletal Character</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2D Sprite Sheet Character</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3D Character</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3D Character Ragdoll</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$3:$C$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0" formatCode="#,##0.00">
+                  <c:v>4392.1109999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>659.14200000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6651.3119999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>537.71</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3DB2-42DE-ABFF-61FD5BEDBE4E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="382135232"/>
+        <c:axId val="326619872"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="382135232"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="326619872"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="326619872"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="382135232"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Update</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> Function Heap Profiler</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$8:$B$9</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Update -  Average of ten</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Objects/Allocation Increase</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$10:$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2D Skeletal Character</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2D Sprite Sheet Character</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3D Character</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3D Character Ragdoll</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$10:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-42A9-4BD2-8F73-1F42F0795150}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$8:$C$9</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Update -  Average of ten</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Heap Size Increase KB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$10:$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2D Skeletal Character</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2D Sprite Sheet Character</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3D Character</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3D Character Ragdoll</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$10:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.60799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.40500000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-42A9-4BD2-8F73-1F42F0795150}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="383366976"/>
+        <c:axId val="244185664"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="383366976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="244185664"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="244185664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="383366976"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Render Function Heap Profiler</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$16:$B$17</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Render - Average of ten</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Objects/Allocation Increase</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$18:$A$20</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2D Skeletal Character</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2D Sprite Sheet Character</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3D Character</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$18:$B$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AB17-402B-A735-3BB4BFE36006}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$16:$C$17</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Render - Average of ten</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Heap Size Increase KB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$18:$A$20</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2D Skeletal Character</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2D Sprite Sheet Character</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3D Character</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$18:$C$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.95199999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-AB17-402B-A735-3BB4BFE36006}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="458473152"/>
+        <c:axId val="388841328"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="458473152"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="388841328"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="388841328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="458473152"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>46672</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>73342</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84FDF6EE-D07B-1C42-821F-7D46F140AA04}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>353375</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>20002</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>544830</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>39052</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C679E13A-6B1A-244A-E446-F9CCDC2B674A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>75247</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>180022</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>94297</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>25717</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{885A696D-273C-78CC-2B78-A2A9DFFA04BB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -443,7 +3446,7 @@
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -630,5 +3633,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>